--- a/Documentacion Proyecto Final/Documentos Finales/Obsrervaciones tesis.xlsx
+++ b/Documentacion Proyecto Final/Documentos Finales/Obsrervaciones tesis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\Documentacion Proyecto Final\Documentos Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A61A2F-516C-4CF2-9EF4-5A02CFFB0A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8CBE1A-08C0-4EB6-8D71-3949C3422EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{82891458-875E-46AE-A906-3907AF7B24E2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Observaciones</t>
   </si>
@@ -180,9 +180,6 @@
 actividades para aprender y juguemos</t>
   </si>
   <si>
-    <t>Verificar la navegabilidad en el juego cartas</t>
-  </si>
-  <si>
     <t>Mejorar la calidad de las imágenes en la provincia de Galápagos</t>
   </si>
   <si>
@@ -238,6 +235,12 @@
   </si>
   <si>
     <t>Mejorar el Juego del rompecabezas</t>
+  </si>
+  <si>
+    <t>se verifico los campos y se realizo la validacion</t>
+  </si>
+  <si>
+    <t>se mejoro el juego agregando un seleccionador de archivos</t>
   </si>
 </sst>
 </file>
@@ -332,9 +335,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6804D-9B0E-4FA1-AF49-36B7D730E973}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,302 +687,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
+    <row r="17" spans="1:3" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+    <row r="23" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="28" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="29" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="9" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+    <row r="32" spans="1:3" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="9" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="9" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -991,21 +990,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6D4E3AF9663F44A99D48F6A14C32E24" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ef2c545909b2c8c4f245e51c931d5125">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c06ee002-2240-41c0-8613-ae89ee54c1df" xmlns:ns4="ba59f6cf-a2f6-4673-b353-cc71c831d8d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33c1e702a415d42269256c0679365df9" ns3:_="" ns4:_="">
     <xsd:import namespace="c06ee002-2240-41c0-8613-ae89ee54c1df"/>
@@ -1214,24 +1198,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A1EF86A-1F85-40E3-B30D-6E4933AC591F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20C97DF3-2AFF-4D22-AA3C-739374055055}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBC1D65F-9820-4479-A225-F11713EE2B60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1248,4 +1230,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20C97DF3-2AFF-4D22-AA3C-739374055055}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A1EF86A-1F85-40E3-B30D-6E4933AC591F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>